--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3537.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3537.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.947392058941942</v>
+        <v>1.093962788581848</v>
       </c>
       <c r="B1">
-        <v>2.403568821375568</v>
+        <v>1.049266695976257</v>
       </c>
       <c r="C1">
-        <v>2.329399949323828</v>
+        <v>1.026624917984009</v>
       </c>
       <c r="D1">
-        <v>2.793439836533961</v>
+        <v>1.252538204193115</v>
       </c>
       <c r="E1">
-        <v>2.570759294557728</v>
+        <v>1.166861414909363</v>
       </c>
     </row>
   </sheetData>
